--- a/spreadsheet/macrofree/cost_checklist.en.xlsx
+++ b/spreadsheet/macrofree/cost_checklist.en.xlsx
@@ -1152,12 +1152,12 @@
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>delete/archive</t>
+          <t>Delete/archive</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>delete or archive unassociated services (disks, nics, ip addresses etc)</t>
+          <t>Delete or archive unassociated services (disks, nics, ip addresses etc)</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
@@ -1194,12 +1194,12 @@
       </c>
       <c r="B11" s="21" t="inlineStr">
         <is>
-          <t>delete/archive</t>
+          <t>Delete/archive</t>
         </is>
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>consider snooze and stop technique (snooze a service after x days, stop after 2x, delete/deallocate after 3x)</t>
+          <t>Consider snooze and stop technique (snooze a service after x days, stop after 2x, delete/deallocate after 3x)</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1236,12 +1236,12 @@
       </c>
       <c r="B12" s="21" t="inlineStr">
         <is>
-          <t>delete/archive</t>
+          <t>Delete/archive</t>
         </is>
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>delete or archive unused resources (old backups, logs, storage accounts, etc...)</t>
+          <t>Delete or archive unused resources (old backups, logs, storage accounts, etc...)</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
@@ -1278,12 +1278,12 @@
       </c>
       <c r="B13" s="21" t="inlineStr">
         <is>
-          <t>delete/archive</t>
+          <t>Delete/archive</t>
         </is>
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>consider a good balance between site recovery storage and backup for non mission critical applications</t>
+          <t>Consider a good balance between site recovery storage and backup for non mission critical applications</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
@@ -1325,7 +1325,7 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">check spending and savings opportunities among the 40 different log analytics workspaces- use different retention and data collection for nonprod workspaces-create daily cap for awareness and tier sizing -  If you do set a daily cap, in addition to creating an alert when the cap is reached,ensure that you also create an alert rule to be notified when some percentage has been reached (90% for example). - consider workspace transformation if possible - https://learn.microsoft.com/azure/azure-monitor/essentials/data-collection-transformations#workspace-transformation-dcr </t>
+          <t xml:space="preserve">Check spending and savings opportunities among the 40 different log analytics workspaces- use different retention and data collection for nonprod workspaces-create daily cap for awareness and tier sizing -  If you do set a daily cap, in addition to creating an alert when the cap is reached,ensure that you also create an alert rule to be notified when some percentage has been reached (90% for example). - consider workspace transformation if possible - https://learn.microsoft.com/azure/azure-monitor/essentials/data-collection-transformations#workspace-transformation-dcr </t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>enforce a purging log policy and automation (if needed, logs can be moved to cold storage)</t>
+          <t>Enforce a purging log policy and automation (if needed, logs can be moved to cold storage)</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="B16" s="21" t="inlineStr">
         <is>
-          <t>run orphaned resources workbook - delete or snooze ghost items</t>
+          <t>Run orphaned resources workbook - delete or snooze ghost items</t>
         </is>
       </c>
       <c r="C16" s="21" t="inlineStr">
@@ -1458,12 +1458,12 @@
       </c>
       <c r="B17" s="21" t="inlineStr">
         <is>
-          <t>shutdown/deallocate</t>
+          <t>Shutdown/deallocate</t>
         </is>
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>shutdown underutilized instances</t>
+          <t>Shutdown underutilized instances</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>check that the disks are really needed, if not: delete. If they are needed, find lower storage tiers or use backup -</t>
+          <t>Check that the disks are really needed, if not: delete. If they are needed, find lower storage tiers or use backup -</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">consider moving unused storage to lower tier, with customized rule - https://learn.microsoft.com/azure/storage/blobs/lifecycle-management-policy-configure  </t>
+          <t xml:space="preserve">Consider moving unused storage to lower tier, with customized rule - https://learn.microsoft.com/azure/storage/blobs/lifecycle-management-policy-configure  </t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>use specific tags for temporary items with 'delete by DATE' format - and automate monthly cleanup</t>
+          <t>Use specific tags for temporary items with 'delete by DATE' format - and automate monthly cleanup</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
@@ -1633,17 +1633,17 @@
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="21" t="inlineStr">
         <is>
-          <t>DB/APP  tuning</t>
+          <t>DB/App tuning</t>
         </is>
       </c>
       <c r="B21" s="21" t="inlineStr">
         <is>
-          <t>db optimization</t>
+          <t>DB optimization</t>
         </is>
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>plan for db optimization with the intent of downsizing the related services (and improve performance)</t>
+          <t>Plan for db optimization with the intent of downsizing the related services (and improve performance)</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1675,17 +1675,17 @@
     <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="21" t="inlineStr">
         <is>
-          <t>DB/APP  tuning</t>
+          <t>DB/APP tuning</t>
         </is>
       </c>
       <c r="B22" s="21" t="inlineStr">
         <is>
-          <t>app modernization</t>
+          <t>App modernization</t>
         </is>
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>modernizing the app towards a microservices architecture will have the effect of letting the app scale according to the single service and not the entire stack</t>
+          <t>Modernizing the app towards a microservices architecture will have the effect of letting the app scale according to the single service and not the entire stack</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -1717,12 +1717,12 @@
     <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="21" t="inlineStr">
         <is>
-          <t>DB/APP  tuning</t>
+          <t>DB/APP tuning</t>
         </is>
       </c>
       <c r="B23" s="21" t="inlineStr">
         <is>
-          <t>db optimization</t>
+          <t>DB optimization</t>
         </is>
       </c>
       <c r="C23" s="21" t="inlineStr">
@@ -1759,17 +1759,17 @@
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="21" t="inlineStr">
         <is>
-          <t>DB/APP  tuning</t>
+          <t>DB/APP tuning</t>
         </is>
       </c>
       <c r="B24" s="21" t="inlineStr">
         <is>
-          <t>demand shaping</t>
+          <t>Demand shaping</t>
         </is>
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>using demand shaping on PaaS services will optimize costs and performances</t>
+          <t>Using demand shaping on PaaS services will optimize costs and performances</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">make sure advisor is configured for VM right sizing </t>
+          <t xml:space="preserve">Make sure advisor is configured for VM right sizing </t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>consider implementing IAC scripts or devops pipelines to match the cost governance process</t>
+          <t>Consider implementing IaC scripts or devops pipelines to match the cost governance process</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>set up cost alerts for applications that have variable costs (ideally for all of them)</t>
+          <t>Set up cost alerts for applications that have variable costs (ideally for all of them)</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2018,7 +2018,7 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>run orphaned resources workbook</t>
+          <t>Run orphaned resources workbook</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2059,7 +2059,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>try and establish a baseline of monthly spending and an acceptable saving target against the baseline (new services will not be optimized at this stage)</t>
+          <t>Try and establish a baseline of monthly spending and an acceptable saving target against the baseline (new services will not be optimized at this stage)</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2100,7 +2100,7 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>establish a cost optimization baseline by using a policy that tags every new resource as #NEW</t>
+          <t>Establish a cost optimization baseline by using a policy that tags every new resource as #NEW</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>in cost analysis - use daily granularity, grouped by service name to analyze the spending of the past 3 months and identify the top 3 spenders</t>
+          <t>In cost analysis - use daily granularity, grouped by service name to analyze the spending of the past 3 months and identify the top 3 spenders</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2268,7 +2268,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>check daily for cost spikes and anomalies (ideally with automatic billing exports)</t>
+          <t>Check daily for cost spikes and anomalies (ideally with automatic billing exports)</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2310,7 +2310,7 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>automate cost retrieval for deep analysis or integration</t>
+          <t>Automate cost retrieval for deep analysis or integration</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
@@ -2347,7 +2347,7 @@
       </c>
       <c r="B38" s="21" t="inlineStr">
         <is>
-          <t>free services</t>
+          <t>Free services</t>
         </is>
       </c>
       <c r="C38" s="21" t="inlineStr">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>consider using tags to all services  for cost allocation</t>
+          <t>Consider using tags to all services for cost allocation</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2478,7 +2478,7 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>consider Reservation automation to track and promptly react to changes</t>
+          <t>Consider Reservation automation to track and promptly react to changes</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
@@ -2510,7 +2510,7 @@
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="inlineStr">
         <is>
-          <t>reservations</t>
+          <t>Reservations</t>
         </is>
       </c>
       <c r="B42" s="21" t="inlineStr">
@@ -2556,12 +2556,12 @@
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="21" t="inlineStr">
         <is>
-          <t>reservations</t>
+          <t>Reservations</t>
         </is>
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>check Red Hat Licences if applicable</t>
+          <t>Check Red Hat Licences if applicable</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
@@ -2598,7 +2598,7 @@
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="21" t="inlineStr">
         <is>
-          <t>reservations</t>
+          <t>Reservations</t>
         </is>
       </c>
       <c r="B44" s="21" t="inlineStr">
@@ -2608,7 +2608,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>saving plans will provide 17% on select app service plans</t>
+          <t>Saving plans will provide 17% on select app service plans</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2640,17 +2640,17 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="21" t="inlineStr">
         <is>
-          <t>reservations</t>
+          <t>Reservations</t>
         </is>
       </c>
       <c r="B45" s="21" t="inlineStr">
         <is>
-          <t>planning</t>
+          <t>Planning</t>
         </is>
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>consolidate reserved VM families with flexibility option (no more than 4-5 families)</t>
+          <t>Consolidate reserved VM families with flexibility option (no more than 4-5 families)</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2686,12 +2686,12 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="21" t="inlineStr">
         <is>
-          <t>reservations</t>
+          <t>Reservations</t>
         </is>
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>reservations/savings plans</t>
+          <t>Reservations/savings plans</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
@@ -2728,17 +2728,17 @@
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="21" t="inlineStr">
         <is>
-          <t>reservations</t>
+          <t>Reservations</t>
         </is>
       </c>
       <c r="B47" s="21" t="inlineStr">
         <is>
-          <t>reservations/savings plans</t>
+          <t>Reservations/savings plans</t>
         </is>
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>plan for Azure Savings Plans for all the workloads that are dynamic and need maximum flexibility</t>
+          <t>Plan for Azure Savings Plans for all the workloads that are dynamic and need maximum flexibility</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -2770,17 +2770,17 @@
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="21" t="inlineStr">
         <is>
-          <t>reservations</t>
+          <t>Reservations</t>
         </is>
       </c>
       <c r="B48" s="21" t="inlineStr">
         <is>
-          <t>reservations/savings plans</t>
+          <t>Reservations/savings plans</t>
         </is>
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>plan for Azure Reservations for all the workloads that are less dynamic and won't change much</t>
+          <t>Plan for Azure Reservations for all the workloads that are less dynamic and won't change much</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -2811,17 +2811,17 @@
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="21" t="inlineStr">
         <is>
-          <t>reservations</t>
+          <t>Reservations</t>
         </is>
       </c>
       <c r="B49" s="21" t="inlineStr">
         <is>
-          <t>reserve storage</t>
+          <t>Reserve storage</t>
         </is>
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>only larger disks can be reserved =&gt;1TiB -</t>
+          <t>Only larger disks can be reserved =&gt; 1 TiB -</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -2852,17 +2852,17 @@
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="21" t="inlineStr">
         <is>
-          <t>reservations</t>
+          <t>Reservations</t>
         </is>
       </c>
       <c r="B50" s="21" t="inlineStr">
         <is>
-          <t>reserve VMs with normalized and rationalized sizes</t>
+          <t>Reserve VMs with normalized and rationalized sizes</t>
         </is>
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>after the right-sizing optimization</t>
+          <t>After the right-sizing optimization</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -2894,7 +2894,7 @@
     <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="21" t="inlineStr">
         <is>
-          <t>reservations</t>
+          <t>Reservations</t>
         </is>
       </c>
       <c r="B51" s="21" t="inlineStr">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>check if applicable and enforce policy/change https://learn.microsoft.com/azure/azure-sql/azure-hybrid-benefit?view=azuresql&amp;tabs=azure-portalhttps://learn.microsoft.com/azure/cost-management-billing/scope-level/create-sql-license-assignments?source=recommendations</t>
+          <t>Check if applicable and enforce policy/change https://learn.microsoft.com/azure/azure-sql/azure-hybrid-benefit?view=azuresql&amp;tabs=azure-portalhttps://learn.microsoft.com/azure/cost-management-billing/scope-level/create-sql-license-assignments?source=recommendations</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
@@ -2936,7 +2936,7 @@
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="21" t="inlineStr">
         <is>
-          <t>reservations</t>
+          <t>Reservations</t>
         </is>
       </c>
       <c r="B52" s="21" t="inlineStr">
@@ -2946,7 +2946,7 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>the VM + licence part discount (ahub+3YRI) is around 70% discount</t>
+          <t>The VM + licence part discount (ahub + 3YRI) is around 70% discount</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
@@ -2978,12 +2978,12 @@
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="21" t="inlineStr">
         <is>
-          <t>reservations</t>
+          <t>Reservations</t>
         </is>
       </c>
       <c r="B53" s="21" t="inlineStr">
         <is>
-          <t>tracking</t>
+          <t>Tracking</t>
         </is>
       </c>
       <c r="C53" s="21" t="inlineStr">
@@ -3019,17 +3019,17 @@
     <row r="54" ht="16.5" customHeight="1">
       <c r="A54" s="21" t="inlineStr">
         <is>
-          <t>reservations</t>
+          <t>Reservations</t>
         </is>
       </c>
       <c r="B54" s="21" t="inlineStr">
         <is>
-          <t>tracking</t>
+          <t>Tracking</t>
         </is>
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>make sure that your reservations usage is close to 100%. If not, either enforce an allowed SKU policy or exchange the reservation</t>
+          <t>Make sure that your reservations usage is close to 100%. If not, either enforce an allowed SKU policy or exchange the reservation</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>plan and enforce a ON/OFF policy for production services, where possible</t>
+          <t>Plan and enforce a On/Off policy for production services, where possible</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3112,7 +3112,7 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>plan and enforce a ON-DEMAND policy with auto-shutdown for non-production services, where possible</t>
+          <t>Plan and enforce a On-Demand policy with auto-shutdown for non-production services, where possible</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>consider using a VMSS to match demand rather than flat sizing</t>
+          <t>Consider using a VMSS to match demand rather than flat sizing</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>use AKS autoscaler to match your clusters usage (make sure the pods requirements match the scaler)</t>
+          <t>Use AKS autoscaler to match your clusters usage (make sure the pods requirements match the scaler)</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>right-size PaaS service according to average use and accomodate spikes with auto or manual scaling</t>
+          <t>Right-size PaaS service according to average use and accomodate spikes with auto or manual scaling</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>plan for demand shaping where applicable</t>
+          <t>Plan for demand shaping where applicable</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3317,7 +3317,7 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>consider implementing a service re-scaling logic within the application</t>
+          <t>Consider implementing a service re-scaling logic within the application</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -3400,12 +3400,12 @@
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>databricks</t>
+          <t>Databricks</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">consider using Spot VMs with fallback where possibleconsider autotermination of clusters https://learn.microsoft.com/azure/databricks/clusters/cluster-config-best-practices#automatic-termination </t>
+          <t>Consider using Spot VMs with fallback where possible. Consider autotermination of clusters.</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3418,14 +3418,10 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I63" s="15" t="inlineStr">
-        <is>
-          <t>https://andrewmatveychuk.com/how-to-audit-azure-hybrid-benefit-usage-with-azure-workbooks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/databricks/clusters/cluster-config-best-practices#automatic-termination</t>
+        </is>
+      </c>
+      <c r="I63" s="15" t="n"/>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
@@ -3497,7 +3493,7 @@
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>functions -Cache data locally</t>
+          <t>Functions - Cache data locally</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
@@ -3543,7 +3539,7 @@
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>functions - Cold starts-Use the 'Run from package' functionality. This way, the code is downloaded as a single zip file. This can, for example, result in significant improvements with Javascript functions, which have a lot of node modules.Use language specific tools to reduce the package size, for example, tree shaking Javascript applications.</t>
+          <t>Functions - Cold starts-Use the 'Run from package' functionality. This way, the code is downloaded as a single zip file. This can, for example, result in significant improvements with Javascript functions, which have a lot of node modules.Use language specific tools to reduce the package size, for example, tree shaking Javascript applications.</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
@@ -3589,7 +3585,7 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Functions -Keep your functions warm</t>
+          <t>Functions - Keep your functions warm</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -3635,7 +3631,7 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>when using autoscale with different functions, there might be one driving all the autoscale for all the resources - consider moving it to a separate consumption plan (and consider higher plan for CPU)</t>
+          <t>When using autoscale with different functions, there might be one driving all the autoscale for all the resources - consider moving it to a separate consumption plan (and consider higher plan for CPU)</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -3719,7 +3715,7 @@
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>Am I billed for 'await time' ?This question is typically asked in the context of a C# function that does an async operation and waits for the result, e.g. await Task.Delay(1000) or await client.GetAsync('http://google.com'). The answer is yes - the GB second calculation is based on the start and end time of the function and the memory usage over that period. What actually happens over that time in terms of CPU activity is not factored into the calculation.One exception to this rule is if you are using durable functions. You are not billed for time spent at awaits in orchestrator functions.apply demand shaping techinques where possible (dev environments?) https://github.com/Azure-Samples/functions-csharp-premium-scaler</t>
+          <t>Am I billed for 'await time'? This question is typically asked in the context of a C# function that does an async operation and waits for the result, e.g. await Task.Delay(1000) or await client.GetAsync('http://google.com'). The answer is yes - the GB second calculation is based on the start and end time of the function and the memory usage over that period. What actually happens over that time in terms of CPU activity is not factored into the calculation.One exception to this rule is if you are using durable functions. You are not billed for time spent at awaits in orchestrator functions.apply demand shaping techinques where possible (dev environments?) https://github.com/Azure-Samples/functions-csharp-premium-scaler</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -3761,7 +3757,7 @@
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>evaluate your network topology against networking costs and where applicable reduce the egress and peering data</t>
+          <t>Evaluate your network topology against networking costs and where applicable reduce the egress and peering data</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -3845,7 +3841,7 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Frontdoor -Route to something that returns nothingEither set up a Function, Function Proxy, or add a route in your WebApp that returns 200 (OK) and sends no or minimal content. The advantage of this is you will be able to log out when it is called.</t>
+          <t>Frontdoor - Route to something that returns nothing. Either set up a Function, Function Proxy, or add a route in your WebApp that returns 200 (OK) and sends no or minimal content. The advantage of this is you will be able to log out when it is called.</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -3887,7 +3883,7 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>consider using free tiers where applicable for all non-production environments</t>
+          <t>Consider using free tiers where applicable for all non-production environments</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
@@ -3924,12 +3920,12 @@
       </c>
       <c r="B75" s="21" t="inlineStr">
         <is>
-          <t>serverless</t>
+          <t>Serverless</t>
         </is>
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>using serverless patterns for spikes can help keeping costs down</t>
+          <t>Using serverless patterns for spikes can help keeping costs down</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
@@ -3971,7 +3967,7 @@
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>consider archiving tiers for less used data</t>
+          <t>Consider archiving tiers for less used data</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
@@ -4013,7 +4009,7 @@
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>check disk sizes where the size does not match the tier (i.e. A 513 GiB disk will pay a P30 (1TiB) and consider resizing</t>
+          <t>Check disk sizes where the size does not match the tier (i.e. A 513 GiB disk will pay a P30 (1TiB) and consider resizing</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
@@ -4055,7 +4051,7 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>consider using standard SSD rather than Premium or Ultra where possible</t>
+          <t>Consider using standard SSD rather than Premium or Ultra where possible</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
@@ -4139,7 +4135,7 @@
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>for ASR, consider using Standard SSD disks if the RPO/RTO and replication throughput allow it</t>
+          <t>For ASR, consider using Standard SSD disks if the RPO/RTO and replication throughput allow it</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
@@ -4181,7 +4177,7 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>storage accounts: check hot tier and/or GRS necessary</t>
+          <t>Storage accounts: check hot tier and/or GRS necessary</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4218,12 +4214,12 @@
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>storage</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Disks -validate use of Premium SSD disks everywhere: for example, non-prod could swap to Standard SSD or On demand Premium SSD  </t>
+          <t xml:space="preserve">Disks - validate use of Premium SSD disks everywhere: for example, non-prod could swap to Standard SSD or on-demand Premium SSD  </t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
@@ -4521,7 +4517,7 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>Use SPOT VMs for interruptible jobs: These are VMs that can be bid on and purchased at a discounted price, providing a cost-effective solution for non-critical workloads.</t>
+          <t>Use Spot VMs for interruptible jobs: These are VMs that can be bid on and purchased at a discounted price, providing a cost-effective solution for non-critical workloads.</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
@@ -4567,7 +4563,7 @@
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>right-sizing all VMs</t>
+          <t>Right-sizing all VMs</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -4609,7 +4605,7 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>swap VM sized with normalized and most recent sizes</t>
+          <t>Swap VM sized with normalized and most recent sizes</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -4701,7 +4697,7 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>containerizing an application can improve VM density and save money on scaling it</t>
+          <t>Containerizing an application can improve VM density and save money on scaling it</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>

--- a/spreadsheet/macrofree/cost_checklist.en.xlsx
+++ b/spreadsheet/macrofree/cost_checklist.en.xlsx
@@ -1073,7 +1073,11 @@
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
-      <c r="E8" s="21" t="n"/>
+      <c r="E8" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -1119,7 +1123,11 @@
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
-      <c r="E9" s="21" t="n"/>
+      <c r="E9" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -1161,7 +1169,11 @@
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
-      <c r="E10" s="21" t="n"/>
+      <c r="E10" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -1203,7 +1215,11 @@
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
-      <c r="E11" s="21" t="n"/>
+      <c r="E11" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -1245,7 +1261,11 @@
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
-      <c r="E12" s="21" t="n"/>
+      <c r="E12" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -1287,7 +1307,11 @@
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
-      <c r="E13" s="21" t="n"/>
+      <c r="E13" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -1329,7 +1353,11 @@
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
-      <c r="E14" s="21" t="n"/>
+      <c r="E14" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -1375,7 +1403,11 @@
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
-      <c r="E15" s="21" t="n"/>
+      <c r="E15" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -1421,7 +1453,11 @@
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
-      <c r="E16" s="21" t="n"/>
+      <c r="E16" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -1467,7 +1503,11 @@
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
-      <c r="E17" s="21" t="n"/>
+      <c r="E17" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -1513,7 +1553,11 @@
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
-      <c r="E18" s="21" t="n"/>
+      <c r="E18" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -1559,7 +1603,11 @@
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
-      <c r="E19" s="21" t="n"/>
+      <c r="E19" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -1605,7 +1653,11 @@
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
-      <c r="E20" s="21" t="n"/>
+      <c r="E20" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -1647,7 +1699,11 @@
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
-      <c r="E21" s="21" t="n"/>
+      <c r="E21" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -1689,7 +1745,11 @@
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
-      <c r="E22" s="21" t="n"/>
+      <c r="E22" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -1731,7 +1791,11 @@
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
-      <c r="E23" s="21" t="n"/>
+      <c r="E23" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -1773,7 +1837,11 @@
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
-      <c r="E24" s="21" t="n"/>
+      <c r="E24" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -1815,7 +1883,11 @@
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
-      <c r="E25" s="21" t="n"/>
+      <c r="E25" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -1857,7 +1929,11 @@
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
-      <c r="E26" s="21" t="n"/>
+      <c r="E26" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -1899,7 +1975,11 @@
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
-      <c r="E27" s="21" t="n"/>
+      <c r="E27" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -1940,7 +2020,11 @@
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
-      <c r="E28" s="21" t="n"/>
+      <c r="E28" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F28" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -1981,7 +2065,11 @@
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
-      <c r="E29" s="21" t="n"/>
+      <c r="E29" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F29" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -2022,7 +2110,11 @@
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
-      <c r="E30" s="21" t="n"/>
+      <c r="E30" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -2063,7 +2155,11 @@
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
-      <c r="E31" s="21" t="n"/>
+      <c r="E31" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F31" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -2104,7 +2200,11 @@
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
-      <c r="E32" s="21" t="n"/>
+      <c r="E32" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F32" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -2146,7 +2246,11 @@
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
-      <c r="E33" s="21" t="n"/>
+      <c r="E33" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F33" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -2188,7 +2292,11 @@
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
-      <c r="E34" s="21" t="n"/>
+      <c r="E34" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F34" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -2230,7 +2338,11 @@
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
-      <c r="E35" s="21" t="n"/>
+      <c r="E35" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F35" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -2272,7 +2384,11 @@
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
-      <c r="E36" s="21" t="n"/>
+      <c r="E36" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F36" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -2314,7 +2430,11 @@
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
-      <c r="E37" s="21" t="n"/>
+      <c r="E37" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F37" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -2356,7 +2476,11 @@
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
-      <c r="E38" s="21" t="n"/>
+      <c r="E38" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F38" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -2398,7 +2522,11 @@
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
-      <c r="E39" s="21" t="n"/>
+      <c r="E39" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F39" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -2440,7 +2568,11 @@
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
-      <c r="E40" s="21" t="n"/>
+      <c r="E40" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -2482,7 +2614,11 @@
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
-      <c r="E41" s="21" t="n"/>
+      <c r="E41" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -2528,7 +2664,11 @@
           <t>check by searching the Meter Category Licenses in the Cost analysys</t>
         </is>
       </c>
-      <c r="E42" s="21" t="n"/>
+      <c r="E42" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F42" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -2570,7 +2710,11 @@
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
-      <c r="E43" s="21" t="n"/>
+      <c r="E43" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F43" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -2612,7 +2756,11 @@
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
-      <c r="E44" s="21" t="n"/>
+      <c r="E44" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F44" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -2654,7 +2802,11 @@
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
-      <c r="E45" s="21" t="n"/>
+      <c r="E45" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F45" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -2700,7 +2852,11 @@
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
-      <c r="E46" s="21" t="n"/>
+      <c r="E46" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F46" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -2742,7 +2898,11 @@
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
-      <c r="E47" s="21" t="n"/>
+      <c r="E47" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F47" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -2784,7 +2944,11 @@
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
-      <c r="E48" s="21" t="n"/>
+      <c r="E48" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F48" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -2825,7 +2989,11 @@
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
-      <c r="E49" s="21" t="n"/>
+      <c r="E49" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -2866,7 +3034,11 @@
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
-      <c r="E50" s="21" t="n"/>
+      <c r="E50" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F50" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -2908,7 +3080,11 @@
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
-      <c r="E51" s="21" t="n"/>
+      <c r="E51" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F51" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -2946,11 +3122,15 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>The VM + licence part discount (ahub + 3YRI) is around 70% discount</t>
+          <t>The VM + license part discount (ahub + 3YRI) is around 70% discount</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
-      <c r="E52" s="21" t="n"/>
+      <c r="E52" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F52" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -2992,7 +3172,11 @@
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
-      <c r="E53" s="21" t="n"/>
+      <c r="E53" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F53" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -3033,7 +3217,11 @@
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
-      <c r="E54" s="21" t="n"/>
+      <c r="E54" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F54" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -3075,7 +3263,11 @@
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
-      <c r="E55" s="21" t="n"/>
+      <c r="E55" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F55" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -3116,7 +3308,11 @@
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
-      <c r="E56" s="21" t="n"/>
+      <c r="E56" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F56" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -3157,7 +3353,11 @@
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
-      <c r="E57" s="21" t="n"/>
+      <c r="E57" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F57" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -3198,7 +3398,11 @@
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
-      <c r="E58" s="21" t="n"/>
+      <c r="E58" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F58" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -3239,7 +3443,11 @@
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
-      <c r="E59" s="21" t="n"/>
+      <c r="E59" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F59" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -3280,7 +3488,11 @@
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
-      <c r="E60" s="21" t="n"/>
+      <c r="E60" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F60" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -3321,7 +3533,11 @@
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
-      <c r="E61" s="21" t="n"/>
+      <c r="E61" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F61" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -3363,7 +3579,11 @@
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
-      <c r="E62" s="21" t="n"/>
+      <c r="E62" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F62" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -3409,7 +3629,11 @@
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
-      <c r="E63" s="21" t="n"/>
+      <c r="E63" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F63" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -3451,7 +3675,11 @@
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
-      <c r="E64" s="21" t="n"/>
+      <c r="E64" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F64" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -3497,7 +3725,11 @@
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
-      <c r="E65" s="21" t="n"/>
+      <c r="E65" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F65" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -3543,7 +3775,11 @@
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
-      <c r="E66" s="21" t="n"/>
+      <c r="E66" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F66" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -3589,7 +3825,11 @@
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
-      <c r="E67" s="21" t="n"/>
+      <c r="E67" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F67" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -3635,7 +3875,11 @@
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
-      <c r="E68" s="21" t="n"/>
+      <c r="E68" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F68" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -3677,7 +3921,11 @@
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
-      <c r="E69" s="21" t="n"/>
+      <c r="E69" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F69" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -3719,7 +3967,11 @@
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
-      <c r="E70" s="21" t="n"/>
+      <c r="E70" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F70" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -3761,7 +4013,11 @@
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
-      <c r="E71" s="21" t="n"/>
+      <c r="E71" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F71" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -3803,7 +4059,11 @@
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
-      <c r="E72" s="21" t="n"/>
+      <c r="E72" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F72" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -3845,7 +4105,11 @@
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
-      <c r="E73" s="21" t="n"/>
+      <c r="E73" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F73" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -3887,7 +4151,11 @@
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
-      <c r="E74" s="21" t="n"/>
+      <c r="E74" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F74" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -3929,7 +4197,11 @@
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
-      <c r="E75" s="21" t="n"/>
+      <c r="E75" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F75" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -3971,7 +4243,11 @@
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
-      <c r="E76" s="21" t="n"/>
+      <c r="E76" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F76" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -4013,7 +4289,11 @@
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
-      <c r="E77" s="21" t="n"/>
+      <c r="E77" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F77" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -4055,7 +4335,11 @@
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
-      <c r="E78" s="21" t="n"/>
+      <c r="E78" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F78" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -4097,7 +4381,11 @@
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
-      <c r="E79" s="21" t="n"/>
+      <c r="E79" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F79" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -4139,7 +4427,11 @@
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
-      <c r="E80" s="21" t="n"/>
+      <c r="E80" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F80" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -4181,7 +4473,11 @@
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
-      <c r="E81" s="21" t="n"/>
+      <c r="E81" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F81" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -4223,7 +4519,11 @@
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
-      <c r="E82" s="21" t="n"/>
+      <c r="E82" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F82" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -4265,7 +4565,11 @@
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
-      <c r="E83" s="21" t="n"/>
+      <c r="E83" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F83" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -4307,7 +4611,11 @@
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
-      <c r="E84" s="21" t="n"/>
+      <c r="E84" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F84" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -4349,7 +4657,11 @@
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
-      <c r="E85" s="21" t="n"/>
+      <c r="E85" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F85" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -4391,7 +4703,11 @@
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
-      <c r="E86" s="21" t="n"/>
+      <c r="E86" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F86" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -4433,7 +4749,11 @@
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
-      <c r="E87" s="21" t="n"/>
+      <c r="E87" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F87" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -4475,7 +4795,11 @@
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
-      <c r="E88" s="21" t="n"/>
+      <c r="E88" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F88" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -4521,7 +4845,11 @@
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
-      <c r="E89" s="21" t="n"/>
+      <c r="E89" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F89" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -4567,7 +4895,11 @@
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
-      <c r="E90" s="21" t="n"/>
+      <c r="E90" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F90" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -4609,7 +4941,11 @@
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
-      <c r="E91" s="21" t="n"/>
+      <c r="E91" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F91" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -4655,7 +4991,11 @@
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
-      <c r="E92" s="21" t="n"/>
+      <c r="E92" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F92" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -4701,7 +5041,11 @@
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
-      <c r="E93" s="21" t="n"/>
+      <c r="E93" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F93" t="inlineStr">
         <is>
           <t>Not verified</t>
